--- a/report.xlsx
+++ b/report.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB_Projects\NOx\Final\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>time</t>
   </si>
@@ -138,6 +134,9 @@
   </si>
   <si>
     <t>adblueConcentrationExp</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -298,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -333,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -510,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL775"/>
+    <sheetView topLeftCell="V1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -91818,4 +91817,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>